--- a/SampleSS.trans.xlsx
+++ b/SampleSS.trans.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<zdef-1191957001:sst xmlns="" xmlns:zdef-1191957001="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<zdef-1053276337:sst xmlns="" xmlns:zdef-1053276337="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <t>Test spreadsheet</t>
   </si>
@@ -60,7 +60,7 @@
   <si xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <t>cb=sum</t>
   </si>
-</zdef-1191957001:sst>
+</zdef-1053276337:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
